--- a/www/ig/nos/ValueSet-JDV-J283-PrestationsIndirects-SERAFIN.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J283-PrestationsIndirects-SERAFIN.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from " r:id="rId4" sheetId="2"/>
+    <sheet name="Include from terminologie-SER" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -306,7 +306,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/terminologie-SERAFINPH/</t>
+    <t>https://smt.esante.gouv.fr/terminologie-SERAFINPH</t>
   </si>
 </sst>
 </file>
